--- a/biology/Zoologie/Akodon_kofordi/Akodon_kofordi.xlsx
+++ b/biology/Zoologie/Akodon_kofordi/Akodon_kofordi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akodon kofordi est une espèce de rongeurs de la famille des Cricetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Pérou et en Bolivie entre 1 800 et 3 700 m d'altitude[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Pérou et en Bolivie entre 1 800 et 3 700 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, kofordi, lui a été donné en l'honneur de Carl B. Koford (d) en reconnaissance de son travail sur l'écologie, l'histoire naturelle et la systématique des mammifères du Pérou[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, kofordi, lui a été donné en l'honneur de Carl B. Koford (d) en reconnaissance de son travail sur l'écologie, l'histoire naturelle et la systématique des mammifères du Pérou.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Philip Myers et James L. Patton, « Akodon of Peru and Bolivia-Revision of the fumeus group (Rodentia: Sigmodontinae) », Occasional papers of the Museum of Zoology, University of Michigan, Ann Arbor, Inconnu, no 721,‎ 11 décembre 1989, p. 1-35 (ISSN 0076-8413, lire en ligne)</t>
         </is>
